--- a/outputs/room_timetables/C002.xlsx
+++ b/outputs/room_timetables/C002.xlsx
@@ -672,17 +672,18 @@
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" s="2" t="inlineStr">
-        <is>
-          <t>CS161 | Problem Solving through Programming | Dr. Sunil P V | C002</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" s="2" t="inlineStr">
         <is>
-          <t>HS161 | English Language and Communication | Dr. Rajesh N S | C002</t>
+          <t>CS161 | Problem Solving through Programming | Dr. Sunil P V | C002</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr"/>
@@ -806,28 +807,11 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>CS161 | Problem Solving through Programming | Dr. Sunil C K | C002</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -898,12 +882,12 @@
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R5:W5"/>
     <mergeCell ref="R4:W4"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="Z3:AE3"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="S3:X3"/>
-    <mergeCell ref="X2:AC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
